--- a/Final report/Registration Page/Testing Spreadsheet v1.0 RegistrationPage.xlsx
+++ b/Final report/Registration Page/Testing Spreadsheet v1.0 RegistrationPage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor_000\Documents\a.SD\GitHub\Software-Testing-And-Verification\Final report\Registration Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="254">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -490,12 +490,6 @@
     <t>Conor McAleavey</t>
   </si>
   <si>
-    <t>Reg_Tproc_1</t>
-  </si>
-  <si>
-    <t>Reg_1</t>
-  </si>
-  <si>
     <t>TCase_21</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>Check an unregistered can register using 6 character password</t>
   </si>
   <si>
-    <t>Reg_2</t>
-  </si>
-  <si>
     <t>Check unregistered user is blocked from registering with an invalid email (1)</t>
   </si>
   <si>
@@ -619,72 +610,6 @@
     <t>Check that the form follows logical tab sequences</t>
   </si>
   <si>
-    <t>Reg_Tproc_2</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_3</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_4</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_5</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_6</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_7</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_8</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_9</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_10</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_11</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_12</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_13</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_14</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_15</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_16</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_17</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_18</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_19</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_20</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_21</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_22</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_23</t>
-  </si>
-  <si>
     <t>First name: Conor                         Last name: McAleavey                Email : cmcaeavey02@qub.ac.uk  Password : Pizzait123                     Confirm password: Pizzait123</t>
   </si>
   <si>
@@ -913,15 +838,6 @@
     <t>Check that the footer with the copyright and site version information is displayed on the reisteration page.</t>
   </si>
   <si>
-    <t>Reg_Tproc_24</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_25</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_26</t>
-  </si>
-  <si>
     <t>While on registeration page check for company logo in the header</t>
   </si>
   <si>
@@ -958,30 +874,12 @@
     <t>Check that navigation  links to other pages from registration page is possible</t>
   </si>
   <si>
-    <t>Reg_Tproc_27</t>
-  </si>
-  <si>
     <t>When a link is clicked that the user will be navigated to the correct corrsponding page</t>
   </si>
   <si>
-    <t>Reg_3</t>
-  </si>
-  <si>
     <t>Security defect. Allows a user to copy a word password from any other field and paste into confirm password field and vice versa. However, is set up to prevent copy and paste function between password fields.</t>
   </si>
   <si>
-    <t>Reg_Tproc_28</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_29</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_30</t>
-  </si>
-  <si>
-    <t>Reg_Tproc_31</t>
-  </si>
-  <si>
     <t>While on registeration page check that  link to Home Page works correctly</t>
   </si>
   <si>
@@ -995,6 +893,111 @@
   </si>
   <si>
     <t>While on registeration page check that  link to Login Page works correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t>Reg_Defect_1</t>
+  </si>
+  <si>
+    <t>Reg_Defect_2</t>
+  </si>
+  <si>
+    <t>Reg_Defect_3</t>
+  </si>
+  <si>
+    <t>Reg_TProc_1</t>
+  </si>
+  <si>
+    <t>Reg_TProc_2</t>
+  </si>
+  <si>
+    <t>Reg_TProc_3</t>
+  </si>
+  <si>
+    <t>Reg_TProc_4</t>
+  </si>
+  <si>
+    <t>Reg_TProc_5</t>
+  </si>
+  <si>
+    <t>Reg_TProc_6</t>
+  </si>
+  <si>
+    <t>Reg_TProc_7</t>
+  </si>
+  <si>
+    <t>Reg_TProc_8</t>
+  </si>
+  <si>
+    <t>Reg_TProc_9</t>
+  </si>
+  <si>
+    <t>Reg_TProc_10</t>
+  </si>
+  <si>
+    <t>Reg_TProc_11</t>
+  </si>
+  <si>
+    <t>Reg_TProc_12</t>
+  </si>
+  <si>
+    <t>Reg_TProc_13</t>
+  </si>
+  <si>
+    <t>Reg_TProc_14</t>
+  </si>
+  <si>
+    <t>Reg_TProc_15</t>
+  </si>
+  <si>
+    <t>Reg_TProc_16</t>
+  </si>
+  <si>
+    <t>Reg_TProc_17</t>
+  </si>
+  <si>
+    <t>Reg_TProc_18</t>
+  </si>
+  <si>
+    <t>Reg_TProc_19</t>
+  </si>
+  <si>
+    <t>Reg_TProc_20</t>
+  </si>
+  <si>
+    <t>Reg_TProc_21</t>
+  </si>
+  <si>
+    <t>Reg_TProc_22</t>
+  </si>
+  <si>
+    <t>Reg_TProc_23</t>
+  </si>
+  <si>
+    <t>Reg_TProc_24</t>
+  </si>
+  <si>
+    <t>Reg_TProc_25</t>
+  </si>
+  <si>
+    <t>Reg_TProc_26</t>
+  </si>
+  <si>
+    <t>Reg_TProc_27</t>
+  </si>
+  <si>
+    <t>Reg_TProc_28</t>
+  </si>
+  <si>
+    <t>Reg_TProc_29</t>
+  </si>
+  <si>
+    <t>Reg_TProc_30</t>
+  </si>
+  <si>
+    <t>Reg_TProc_31</t>
   </si>
 </sst>
 </file>
@@ -1542,11 +1545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1559827120"/>
-        <c:axId val="-1559828208"/>
+        <c:axId val="243493408"/>
+        <c:axId val="243490272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1559827120"/>
+        <c:axId val="243493408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1559828208"/>
+        <c:crossAx val="243490272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1564,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1559828208"/>
+        <c:axId val="243490272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1559827120"/>
+        <c:crossAx val="243493408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +1986,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2011,7 +2014,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -2028,7 +2031,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>82</v>
@@ -2043,7 +2046,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -2060,10 +2063,10 @@
         <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2077,10 +2080,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -2094,10 +2097,10 @@
         <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -2111,10 +2114,10 @@
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -2125,13 +2128,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -2139,13 +2142,13 @@
     </row>
     <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -2153,13 +2156,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2167,13 +2170,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -2181,55 +2184,55 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -2249,9 +2252,7 @@
   </sheetPr>
   <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2325,13 +2326,13 @@
         <v>62</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>55</v>
@@ -2364,13 +2365,13 @@
         <v>63</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>56</v>
@@ -2401,13 +2402,13 @@
         <v>64</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>56</v>
@@ -2425,7 +2426,7 @@
         <v>83</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>33</v>
@@ -2438,7 +2439,7 @@
       </c>
       <c r="N4" s="40"/>
       <c r="O4" s="22" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="P4" s="6"/>
     </row>
@@ -2447,13 +2448,13 @@
         <v>65</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>56</v>
@@ -2483,13 +2484,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>56</v>
@@ -2519,13 +2520,13 @@
         <v>67</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>56</v>
@@ -2555,13 +2556,13 @@
         <v>68</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>56</v>
@@ -2590,13 +2591,13 @@
         <v>69</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>56</v>
@@ -2626,13 +2627,13 @@
         <v>70</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>56</v>
@@ -2650,7 +2651,7 @@
         <v>83</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>33</v>
@@ -2663,7 +2664,7 @@
       </c>
       <c r="N10" s="40"/>
       <c r="O10" s="22" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="P10" s="6"/>
       <c r="T10" t="s">
@@ -2675,13 +2676,13 @@
         <v>71</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>56</v>
@@ -2718,13 +2719,13 @@
         <v>72</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>57</v>
@@ -2761,13 +2762,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>57</v>
@@ -2804,13 +2805,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>57</v>
@@ -2840,13 +2841,13 @@
         <v>75</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>57</v>
@@ -2876,13 +2877,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>57</v>
@@ -2912,13 +2913,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>58</v>
@@ -2948,13 +2949,13 @@
         <v>78</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>59</v>
@@ -2984,13 +2985,13 @@
         <v>79</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>60</v>
@@ -3020,13 +3021,13 @@
         <v>80</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>61</v>
@@ -3056,16 +3057,16 @@
         <v>81</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>27</v>
@@ -3080,7 +3081,7 @@
         <v>83</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="K21" s="34" t="s">
         <v>33</v>
@@ -3093,25 +3094,25 @@
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="22" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>6</v>
@@ -3135,19 +3136,19 @@
     </row>
     <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>11</v>
@@ -3171,19 +3172,19 @@
     </row>
     <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>11</v>
@@ -3207,19 +3208,19 @@
     </row>
     <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>11</v>
@@ -3243,19 +3244,19 @@
     </row>
     <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>11</v>
@@ -3282,19 +3283,19 @@
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>11</v>
@@ -3325,19 +3326,19 @@
     </row>
     <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="38">
@@ -5311,9 +5312,7 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5354,19 +5353,19 @@
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="16" t="s">
@@ -5380,19 +5379,19 @@
     </row>
     <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="22"/>
@@ -5405,19 +5404,19 @@
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -5430,19 +5429,19 @@
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -5455,19 +5454,19 @@
     </row>
     <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -5480,19 +5479,19 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -5505,19 +5504,19 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -5530,19 +5529,19 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -5555,19 +5554,19 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -5580,19 +5579,19 @@
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -5605,19 +5604,19 @@
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -5630,19 +5629,19 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -5655,19 +5654,19 @@
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -5680,19 +5679,19 @@
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -5705,19 +5704,19 @@
     </row>
     <row r="16" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -5730,19 +5729,19 @@
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -5755,19 +5754,19 @@
     </row>
     <row r="18" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -5780,19 +5779,19 @@
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -5805,223 +5804,223 @@
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6122,6 +6121,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6235,15 +6243,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
@@ -6260,6 +6259,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6273,12 +6280,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>